--- a/archivos/PLANTILLAEGRESO-NOBORRAR.xlsx
+++ b/archivos/PLANTILLAEGRESO-NOBORRAR.xlsx
@@ -20,7 +20,7 @@
     <t>DETALLE EGRESO</t>
   </si>
   <si>
-    <t>ITEM</t>
+    <t>ÍTEM</t>
   </si>
   <si>
     <t>PROGRAMA</t>
@@ -35,7 +35,7 @@
     <t>PROYECTO</t>
   </si>
   <si>
-    <t>APROBACION</t>
+    <t>APROBACIÓN</t>
   </si>
   <si>
     <t>TIPO MONEDA</t>
@@ -47,23 +47,25 @@
     <t>MONTO</t>
   </si>
   <si>
-    <t>NUMERO DOCUMENTO</t>
+    <t>NÚMERO DOCUMENTO</t>
   </si>
   <si>
     <t>CONCEPTO</t>
   </si>
   <si>
-    <t>FECHA CRACION</t>
+    <t>FECHA CREACIÓN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="[$$-340A]#,##0;[RED][$$-340A]&quot; -&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="DDDD, D&quot; de &quot;MMMM&quot; de &quot;YYYY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -87,7 +89,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="15"/>
+      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -101,6 +103,13 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="15"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -154,7 +163,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,6 +182,18 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -252,15 +273,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>856440</xdr:colOff>
+      <xdr:colOff>1792080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1810080</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>463320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>830160</xdr:rowOff>
+      <xdr:rowOff>826560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -273,8 +294,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4177800" y="166680"/>
-          <a:ext cx="2873880" cy="825840"/>
+          <a:off x="5113440" y="164880"/>
+          <a:ext cx="2872080" cy="824040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -294,20 +315,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8418367346939"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.3673469387755"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.2040816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="17.2091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.6173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.2091836734694"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -321,7 +343,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -387,8 +409,8 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
@@ -404,11 +426,21 @@
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="B5:C5"/>
@@ -423,6 +455,7 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
